--- a/medicine/Enfance/Germano_Zullo/Germano_Zullo.xlsx
+++ b/medicine/Enfance/Germano_Zullo/Germano_Zullo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Germano Zullo, né le 16 mai 1968 à Genève, est un écrivain suisse, auteur de littérature pour la jeunesse, poète, scénariste et auteur de films d'animation. Il collabore avec son épouse, l'illustratrice Albertine Zullo[1], sur de nombreuses réalisations
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Germano Zullo, né le 16 mai 1968 à Genève, est un écrivain suisse, auteur de littérature pour la jeunesse, poète, scénariste et auteur de films d'animation. Il collabore avec son épouse, l'illustratrice Albertine Zullo, sur de nombreuses réalisations
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'origine italienne, Germano Zullo est né à Genève en 1968. Il étudie l'économie et le management, entreprend quelques voyages en Europe, exerce comme comptable[2], avant de se tourner vers l'écriture[3]. En 1992 il rencontre la dessinatrice Albertine. Leur mariage en 1996 marque le début d'une longue collaboration[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'origine italienne, Germano Zullo est né à Genève en 1968. Il étudie l'économie et le management, entreprend quelques voyages en Europe, exerce comme comptable, avant de se tourner vers l'écriture. En 1992 il rencontre la dessinatrice Albertine. Leur mariage en 1996 marque le début d'une longue collaboration.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Sélection de publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Marta et la bicyclette, avec Albertine Zullo, La Joie de lire, 1999
 Violette et ficelle , avec Albertine Zullo , La joie de lire , 2000
@@ -562,7 +578,7 @@
 Une bonne longueur en bouche, HumuS (maison d'édition) , 2010
 Le plus grand footballeur de tous les temps , La Joie de lire , 2010 
 Les Oiseaux, avec Albertine Zullo, éd. La Joie de Lire, 2010
-Les Gratte-ciel[4], avec Albertine Zullo, éd. La Joie de Lire, 2011
+Les Gratte-ciel, avec Albertine Zullo, éd. La Joie de Lire, 2011
 A la montagne, avec albertine Zullo , La Joie de lire , 2011
 Ligne 135, avec Albertine Zullo, éd.La Joie de Lire, 2012
 Dada, avec Albertine Zullo, éd. La Joie de Lire, 2013
@@ -572,7 +588,7 @@
 A la campagne , avec Albertine Zullo , La joie de lire , 2015
 Faim de corps , avec Albertine Zullo , HumuS (maison d'édition) , 2016
 La femme canon, avec Albertine Zullo , Hélice Hélas éditeur , 2016
-Le Président du monde, avec Albertine Zullo, La Joie de lire[5], 2016
+Le Président du monde, avec Albertine Zullo, La Joie de lire, 2016
 Roberto &amp; Gélatine :une grande histoire pour les grands , avec Albertine Zullo , La joie de lire , 2019   (ISBN 9782889084746)
 Roberto &amp; Gélatine : je suis cachée , avec Albertine Zullo , La joie de lire , 2020   (ISBN 9782889085118)
 Depuis que les monstres ... , avec Albertine Zullo , la joie de lire , 2021
@@ -604,10 +620,12 @@
           <t>Cinéma</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2003, dans le cadre du Festival international d'animation d'Annecy, le prix spécial de la SACD et le prix Canal sont décernés au projet de court métrage d'animation de l'album Le Génie de la boîte de raviolis[2].
-Germano Zullo écrit le scénario du court-métrage d'animation Chambre 69 (2012[6]) et  participe à celui de Ma vie de Courgette (2016[7]).
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2003, dans le cadre du Festival international d'animation d'Annecy, le prix spécial de la SACD et le prix Canal sont décernés au projet de court métrage d'animation de l'album Le Génie de la boîte de raviolis.
+Germano Zullo écrit le scénario du court-métrage d'animation Chambre 69 (2012) et  participe à celui de Ma vie de Courgette (2016).
 </t>
         </is>
       </c>
@@ -636,13 +654,15 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Pomme d'Or 1999 de la Biennale d'illustration de Bratislava pour les illustrations de Marta et la bicyclette[8] de Albertine Zullo
-(international) « Honour List » 2010[9] de l' IBBY, Catégorie Illustrations pour La Rumeur de Venise, par Albertine Zullo
- Prix Sorcières 2011  pour Les Oiseaux[10], avec Albertine Zullo
- Prix du New York Times Best Illustrated children's book Award 2012 pour Les Oiseaux[11], illustré par Albertine Zullo
-(international) « Honour List » 2016[12] de l' IBBY, Catégorie Illustrations pour Mon tout petit, illustré par Albertine Zullo
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pomme d'Or 1999 de la Biennale d'illustration de Bratislava pour les illustrations de Marta et la bicyclette de Albertine Zullo
+(international) « Honour List » 2010 de l' IBBY, Catégorie Illustrations pour La Rumeur de Venise, par Albertine Zullo
+ Prix Sorcières 2011  pour Les Oiseaux, avec Albertine Zullo
+ Prix du New York Times Best Illustrated children's book Award 2012 pour Les Oiseaux, illustré par Albertine Zullo
+(international) « Honour List » 2016 de l' IBBY, Catégorie Illustrations pour Mon tout petit, illustré par Albertine Zullo
  Prix BolognaRagazzi 2016 catégorie Fiction pour Mon tout petit, illustrations de Albertine Zullo</t>
         </is>
       </c>
